--- a/WebOca/src/assets/format/FORMATO_CAJA_CHICA.xlsx
+++ b/WebOca/src/assets/format/FORMATO_CAJA_CHICA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Importe No afecto</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>T. Cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cta Gastos    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cta IGV       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cta x Pagar   </t>
+  </si>
+  <si>
+    <t>SOLES</t>
   </si>
 </sst>
 </file>
@@ -120,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +182,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,17 +239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,12 +251,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,7 +298,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -306,6 +324,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -631,375 +657,501 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="0.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>1000497</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44072</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>20550372640</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>4.66</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>0.84</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="14">
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="13">
         <v>5.5</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="24">
+        <v>3.7</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>1210245</v>
+      </c>
+      <c r="R2" s="24">
+        <v>1416000</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>44074</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>20550372640</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>4.66</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>0.84</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="14">
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="13">
         <v>5.5</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="24">
+        <v>4.7</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>1210246</v>
+      </c>
+      <c r="R3" s="24">
+        <v>1416001</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>258885</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>44075</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>4.41</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>0.79</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14">
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="13">
         <v>5.2</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="24">
+        <v>5.7</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1210247</v>
+      </c>
+      <c r="R4" s="24">
+        <v>1416002</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>359327</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>44075</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>4.41</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>0.79</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14">
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13">
         <v>5.2</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="P5" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>1210248</v>
+      </c>
+      <c r="R5" s="24">
+        <v>1416003</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>687707</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>44076</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>4.41</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>0.79</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14">
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13">
         <v>5.2</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="P6" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1210249</v>
+      </c>
+      <c r="R6" s="24">
+        <v>1416004</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>93706</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>44076</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>4.41</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>0.79</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14">
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13">
         <v>5.2</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>1210250</v>
+      </c>
+      <c r="R7" s="24">
+        <v>1416005</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>94296</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>44079</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>4.41</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>0.79</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14">
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13">
         <v>5.2</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P8" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1210251</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1416006</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>11847</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>44081</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>20523621212</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>4.41</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>0.79</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="14">
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13">
         <v>5.2</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="24">
+        <v>10.7</v>
+      </c>
+      <c r="P9" s="24">
+        <v>1010245</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>1210252</v>
+      </c>
+      <c r="R9" s="24">
+        <v>1416007</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
